--- a/result/all_species_mat_kegg.xlsx
+++ b/result/all_species_mat_kegg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac_Workplace/Mac_WorkSpace/leptin/multi-species-compare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Mac_Workplace/Mac_WorkSpace/leptin/multi-species-compare/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2BAC207-BD78-4F49-BD45-2D1469ADAC4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEE402F-83E4-544A-AA87-16C927E5DD69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="6600" windowWidth="36460" windowHeight="19880"/>
+    <workbookView xWindow="3180" yWindow="2600" windowWidth="28160" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_species_mat_kegg" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -229,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +407,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -576,13 +570,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -937,16 +930,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:M18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="13" max="13" width="10.83203125" style="3"/>
+    <col min="13" max="13" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -983,7 +976,7 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N1" t="s">
@@ -1006,168 +999,168 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2" s="3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1">
-        <v>36</v>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>8</v>
-      </c>
       <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3">
         <v>6</v>
       </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
       <c r="N3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1">
-        <v>73</v>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>71</v>
       </c>
       <c r="E4">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4">
         <v>18</v>
       </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3">
-        <v>4</v>
+      <c r="M4">
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1175,55 +1168,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44</v>
-      </c>
-      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
         <v>27</v>
       </c>
-      <c r="G5" s="1">
-        <v>29</v>
-      </c>
-      <c r="H5" s="1">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1">
-        <v>17</v>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -1231,55 +1224,55 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1">
-        <v>62</v>
-      </c>
-      <c r="G6" s="1">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>12</v>
-      </c>
-      <c r="J6">
-        <v>10</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" s="3">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>5</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -1287,55 +1280,55 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>27</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>78</v>
+      </c>
+      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1">
-        <v>80</v>
-      </c>
-      <c r="H7" s="1">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1">
-        <v>22</v>
-      </c>
       <c r="J7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7" s="3">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1343,55 +1336,55 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1">
-        <v>19</v>
-      </c>
-      <c r="H8" s="1">
-        <v>49</v>
-      </c>
-      <c r="I8" s="1">
-        <v>23</v>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>47</v>
+      </c>
+      <c r="I8">
+        <v>21</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
         <v>6</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -1399,55 +1392,55 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <v>44</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
         <v>8</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <v>2</v>
-      </c>
-      <c r="O9">
-        <v>2</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1455,55 +1448,55 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
-        <v>13</v>
-      </c>
-      <c r="H10">
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>5</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10" s="1">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1">
-        <v>6</v>
-      </c>
-      <c r="L10" s="1">
-        <v>11</v>
-      </c>
-      <c r="M10" s="1">
-        <v>6</v>
-      </c>
-      <c r="N10" s="1">
-        <v>10</v>
-      </c>
-      <c r="O10" s="1">
-        <v>8</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2</v>
-      </c>
-      <c r="R10" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -1511,55 +1504,55 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>22</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
         <v>8</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>6</v>
-      </c>
-      <c r="K11" s="1">
-        <v>24</v>
-      </c>
-      <c r="L11" s="1">
-        <v>7</v>
-      </c>
-      <c r="M11" s="1">
-        <v>15</v>
-      </c>
-      <c r="N11" s="1">
-        <v>4</v>
-      </c>
-      <c r="O11" s="1">
-        <v>5</v>
-      </c>
-      <c r="P11" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>7</v>
-      </c>
-      <c r="R11" s="1">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -1567,55 +1560,55 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
-      </c>
-      <c r="J12" s="1">
-        <v>11</v>
-      </c>
-      <c r="K12" s="1">
-        <v>7</v>
-      </c>
-      <c r="L12" s="1">
-        <v>14</v>
-      </c>
-      <c r="M12" s="1">
-        <v>6</v>
-      </c>
-      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12">
         <v>5</v>
       </c>
-      <c r="O12" s="1">
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
         <v>5</v>
-      </c>
-      <c r="P12" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>3</v>
-      </c>
-      <c r="R12" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -1623,55 +1616,55 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
         <v>5</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13" s="1">
-        <v>6</v>
-      </c>
-      <c r="K13" s="1">
-        <v>15</v>
-      </c>
-      <c r="L13" s="1">
-        <v>6</v>
-      </c>
-      <c r="M13" s="1">
-        <v>16</v>
-      </c>
-      <c r="N13" s="1">
-        <v>4</v>
-      </c>
-      <c r="O13" s="1">
-        <v>5</v>
-      </c>
-      <c r="P13" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>5</v>
-      </c>
-      <c r="R13" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1679,55 +1672,55 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1">
-        <v>10</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4</v>
-      </c>
-      <c r="N14" s="1">
-        <v>10</v>
-      </c>
-      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>8</v>
       </c>
-      <c r="P14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1">
-        <v>3</v>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -1735,55 +1728,55 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
         <v>6</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>8</v>
-      </c>
-      <c r="K15" s="1">
-        <v>5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
-      </c>
-      <c r="N15" s="1">
-        <v>8</v>
-      </c>
-      <c r="O15" s="1">
-        <v>13</v>
-      </c>
-      <c r="P15" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>3</v>
-      </c>
-      <c r="R15" s="1">
-        <v>5</v>
+      <c r="O15">
+        <v>11</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -1791,55 +1784,55 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1">
-        <v>3</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>4</v>
-      </c>
-      <c r="P16" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>3</v>
-      </c>
-      <c r="R16" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -1847,55 +1840,55 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>5</v>
       </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17" s="1">
-        <v>2</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7</v>
-      </c>
-      <c r="L17" s="1">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>3</v>
-      </c>
-      <c r="P17" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>19</v>
-      </c>
-      <c r="R17" s="1">
-        <v>6</v>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>17</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -1903,55 +1896,55 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
-        <v>7</v>
-      </c>
-      <c r="K18" s="1">
-        <v>10</v>
-      </c>
-      <c r="L18" s="1">
-        <v>7</v>
-      </c>
-      <c r="M18" s="1">
-        <v>7</v>
-      </c>
-      <c r="N18" s="1">
-        <v>3</v>
-      </c>
-      <c r="O18" s="1">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="P18" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>6</v>
-      </c>
-      <c r="R18" s="1">
-        <v>47</v>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
